--- a/biology/Histoire de la zoologie et de la botanique/Ferdinand_Deppe/Ferdinand_Deppe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ferdinand_Deppe/Ferdinand_Deppe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferdinand Deppe est un peintre, un naturaliste et un explorateur prussien, né en 1794 et mort en 1861.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le jeune frère de Pierre Guillaume Deppe (de), comptable au sein du musée de zoologie de Berlin (l'actuel musée d'histoire naturelle de Berlin). Il travaille comme jardinier pour les jardins royaux. C'est le directeur du musée zoologique, Hinrich Lichtenstein (1780-1857), qui le recommande le jeune Deppe au comte von Sack (de), chambellan du roi de Prusse, qui apprenant l'ouverture du Mexique aux visiteurs étrangers, voulait y conduire une expédition. Deppe se forme alors à la préparation et à la conservation des oiseaux et des mammifères, technique où il excelle bientôt. Il étudie également la botanique, la zoologie et la géographie du continent américain, il apprend également le dessin et la peinture ainsi que l'anglais et l'espagnol. Le comte hésite pendant trois ans à entreprendre son voyage, c'est probablement sous la pression de Deppe qu'il finit par se décider. Les deux hommes, accompagnés par le domestique du comte, arrivent à Londres le 23 août 1824. Deppe visite le British Museum et juge la partie zoologique inférieure au muséum de Berlin, ainsi que l'exposition de William Bullock (v. 1773-1849) et la boutique de Benjamin Leadbeater (1760-1837) où il peut observer ses premiers oiseaux mexicains.
 La petite troupe quitte l'Angleterre le 8 octobre à bord d'un bateau à destination de la Barbade. Il arrive à Alvarado, Veracruz, à la mi-décembre 1824. Peu de temps après, le valet du comte meurt de la fièvre jaune. À partir de ce moment, la correspondance et le journal de Deppe ne font plus aucune mention du comte qui quitte le pays à l'automne 1825 et meurt à Berlin trois ans plus tard. Deppe accompli alors seul un voyage à travers le Mexique de près de trois ans, rejoint durant la dernière partie de son périple par le fils de William Bullock. Deppe réalise les premières récoltes scientifiques d'oiseaux du Mexique et rassemble une collection de 958 peaux représentant 315 espèces ainsi que de très nombreux spécimens de reptiles, d'amphibiens, de poissons, de mollusques et des milliers d'insectes, sans compter de très nombreux végétaux. Tous ses spécimens sont acquis par le muséum de Berlin.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Erwin Stresemann (1954). Ferdinand Deppe's travels in Mexico, 1824-1829, The Condor, 56 : 86-92.</t>
         </is>
